--- a/ONCHO/Impact Assessments/Benin/stop/2024/bj_oncho_stop_4_2408_symptomes.xlsx
+++ b/ONCHO/Impact Assessments/Benin/stop/2024/bj_oncho_stop_4_2408_symptomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Benin\stop\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7035DFD8-9163-465A-AF86-9B8EE97EA102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935E8017-D972-468F-A6C5-BAB6EA1C892E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="242">
   <si>
     <t>form_title</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>select_one yes_no_nk_rf</t>
-  </si>
-  <si>
-    <t>2) Sélectionner un village</t>
   </si>
   <si>
     <t>5) Numéro d'identification du participant</t>
@@ -598,135 +595,27 @@
     <t>s_EndTime</t>
   </si>
   <si>
-    <t>BANTE</t>
-  </si>
-  <si>
     <t>BASSILA</t>
   </si>
   <si>
-    <t>OUAKE</t>
-  </si>
-  <si>
-    <t>SAVE</t>
-  </si>
-  <si>
     <t>TCHAOUROU</t>
   </si>
   <si>
-    <t>AGOUA</t>
-  </si>
-  <si>
-    <t>AKPASSI</t>
-  </si>
-  <si>
-    <t>ATOKOLIBE</t>
-  </si>
-  <si>
-    <t>BOBE</t>
-  </si>
-  <si>
-    <t>GOUKA</t>
-  </si>
-  <si>
-    <t>KOKO</t>
-  </si>
-  <si>
     <t>PIRA</t>
   </si>
   <si>
-    <t>ALEDJO</t>
-  </si>
-  <si>
-    <t>MANIGRI</t>
-  </si>
-  <si>
     <t>PENESSOULOU</t>
   </si>
   <si>
-    <t>BADJOUDE</t>
-  </si>
-  <si>
-    <t>SEMERE 1</t>
-  </si>
-  <si>
-    <t>SEMERE 2</t>
-  </si>
-  <si>
-    <t>TCHALINGA</t>
-  </si>
-  <si>
-    <t>ADIDO</t>
-  </si>
-  <si>
     <t>BESSE</t>
   </si>
   <si>
-    <t>BONI</t>
-  </si>
-  <si>
-    <t>KABOUA</t>
-  </si>
-  <si>
-    <t>OFFE</t>
-  </si>
-  <si>
-    <t>PLATEAU</t>
-  </si>
-  <si>
-    <t>SAKIN</t>
-  </si>
-  <si>
-    <t>ALAFIAROU</t>
-  </si>
-  <si>
-    <t>BETEROU</t>
-  </si>
-  <si>
-    <t>GORO</t>
-  </si>
-  <si>
     <t>KIKA</t>
   </si>
   <si>
-    <t>SANSON</t>
-  </si>
-  <si>
-    <t>TCHATCHOU</t>
-  </si>
-  <si>
-    <t>IGBOÈ</t>
-  </si>
-  <si>
-    <t>OKOTO</t>
-  </si>
-  <si>
-    <t>AKARADÈ</t>
-  </si>
-  <si>
-    <t>IGADOUGOU</t>
-  </si>
-  <si>
-    <t>MALOMI</t>
-  </si>
-  <si>
-    <t>TALINTA</t>
-  </si>
-  <si>
-    <t>GBÉGAMEY</t>
-  </si>
-  <si>
     <t>ADJIMON</t>
   </si>
   <si>
-    <t>ADJIRO</t>
-  </si>
-  <si>
-    <t>BASSILA ATONONKA</t>
-  </si>
-  <si>
-    <t>BIGUINA AKPASSA</t>
-  </si>
-  <si>
     <t>IGBOMAKRO</t>
   </si>
   <si>
@@ -739,123 +628,6 @@
     <t>BÉTÉROU</t>
   </si>
   <si>
-    <t>KPESSOU</t>
-  </si>
-  <si>
-    <t>OUBÉROU</t>
-  </si>
-  <si>
-    <t>WARI-MARO</t>
-  </si>
-  <si>
-    <t>DJAGBALLO</t>
-  </si>
-  <si>
-    <t>ADJÉGOULÈ</t>
-  </si>
-  <si>
-    <t>WOUKPO</t>
-  </si>
-  <si>
-    <t>MAYAMON</t>
-  </si>
-  <si>
-    <t>BAAKO</t>
-  </si>
-  <si>
-    <t>KABO</t>
-  </si>
-  <si>
-    <t>KIKA-BARRAGE</t>
-  </si>
-  <si>
-    <t>KOKOBÈ</t>
-  </si>
-  <si>
-    <t>MONRAWONKOUROU</t>
-  </si>
-  <si>
-    <t>WARANKPÉROU</t>
-  </si>
-  <si>
-    <t>ITCHOCOBO</t>
-  </si>
-  <si>
-    <t>IGBÈRÈ</t>
-  </si>
-  <si>
-    <t>MANIGRI-OKÉ SOUANGBÉ</t>
-  </si>
-  <si>
-    <t>ATCHAKPA-KPINGNI</t>
-  </si>
-  <si>
-    <t>GOBÉ</t>
-  </si>
-  <si>
-    <t>AWANLA</t>
-  </si>
-  <si>
-    <t>SOBITÈ</t>
-  </si>
-  <si>
-    <t>AWO</t>
-  </si>
-  <si>
-    <t>MÊLAN</t>
-  </si>
-  <si>
-    <t>PÉNESSOULOU</t>
-  </si>
-  <si>
-    <t>ADJIGO</t>
-  </si>
-  <si>
-    <t>AYIGBO-KOTO</t>
-  </si>
-  <si>
-    <t>OKOUTA-OSSÉ</t>
-  </si>
-  <si>
-    <t>DAKPA</t>
-  </si>
-  <si>
-    <t>IWÉÉ</t>
-  </si>
-  <si>
-    <t>KAYA</t>
-  </si>
-  <si>
-    <t>KIM-KIM</t>
-  </si>
-  <si>
-    <t>AWOTOBI</t>
-  </si>
-  <si>
-    <t>KAWADO</t>
-  </si>
-  <si>
-    <t>AKOUNDANMON</t>
-  </si>
-  <si>
-    <t>GBÉYÈKÈROU</t>
-  </si>
-  <si>
-    <t>KÈRA</t>
-  </si>
-  <si>
-    <t>TCHAOUROU-GOBI-ALÉDJI</t>
-  </si>
-  <si>
-    <t>GARAROU</t>
-  </si>
-  <si>
-    <t>KOUBOU</t>
-  </si>
-  <si>
-    <t>WORIA</t>
-  </si>
-  <si>
     <t>select_one region_list</t>
   </si>
   <si>
@@ -886,22 +658,131 @@
     <t>Si oui, sur quelles parties du corps se trouvent les boutons ? (Cocher les cases appropriées) :</t>
   </si>
   <si>
-    <t>(2023 Juillet) ONCHO Stop TDM - 4. Symptôme &amp; Examens physiques V2</t>
-  </si>
-  <si>
-    <t>bj_oncho_stop_4_202306_symptomes_v2</t>
-  </si>
-  <si>
-    <t>N TCHON</t>
+    <t>bj_oncho_stop_4_2408_symptomes</t>
+  </si>
+  <si>
+    <t>(2024 Août) ONCHO Stop TDM - 4. Symptôme &amp; Examens physiques</t>
+  </si>
+  <si>
+    <t>BANTÈ</t>
+  </si>
+  <si>
+    <t>OUAKÉ</t>
+  </si>
+  <si>
+    <t>SAVÈ</t>
+  </si>
+  <si>
+    <t>TCHALENGA</t>
+  </si>
+  <si>
+    <t>OUBÉROU/PONT</t>
+  </si>
+  <si>
+    <t>TÉROU PONT</t>
+  </si>
+  <si>
+    <t>KIKA BARRAGE</t>
+  </si>
+  <si>
+    <t>ANGARADÉBOU</t>
+  </si>
+  <si>
+    <t>ARIGBOKOTO</t>
+  </si>
+  <si>
+    <t>OKOUTA-OSSE</t>
+  </si>
+  <si>
+    <t>GBONGBONTOUTA</t>
+  </si>
+  <si>
+    <t>village_id</t>
+  </si>
+  <si>
+    <t>select_one village_id</t>
+  </si>
+  <si>
+    <t>s_site_id</t>
+  </si>
+  <si>
+    <t>2.a. Sélectionner un village</t>
+  </si>
+  <si>
+    <t>2.b. Code du village</t>
+  </si>
+  <si>
+    <t>${s_site_name} = village_list</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Numéro d'identification enregistré</t>
+  </si>
+  <si>
+    <t>Vous avez déjà utiliser cette identifiant</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>position(..)</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>bj_o_s_2408</t>
+  </si>
+  <si>
+    <t>Symptôme &amp; Examens physiques</t>
+  </si>
+  <si>
+    <t>read_only</t>
+  </si>
+  <si>
+    <t>join(' ', ${s_code_id})</t>
+  </si>
+  <si>
+    <t>if (${C2} = 1,'',substring-after(${C1},${s_code_id}))</t>
+  </si>
+  <si>
+    <t>s_code_id</t>
+  </si>
+  <si>
+    <t>not(selected(${C3}, ${s_code_id}))</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>if(${s_id_type} = 'Scanner', concat(${s_barecode_id}), concat(${s_manual_id}))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -960,8 +841,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -986,8 +873,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1010,31 +909,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1043,31 +972,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,29 +1005,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1388,13 +1351,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1407,13 +1370,13 @@
     <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
     <col min="8" max="8" width="34.25" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
     <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.875" customWidth="1"/>
     <col min="12" max="12" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -1450,16 +1413,19 @@
       <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
@@ -1479,12 +1445,12 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>26</v>
@@ -1501,12 +1467,12 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>32</v>
@@ -1522,18 +1488,18 @@
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="11"/>
@@ -1546,48 +1512,48 @@
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>112</v>
+        <v>219</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="10"/>
       <c r="J6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="6"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="21" t="s">
-        <v>113</v>
-      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="6" t="s">
         <v>23</v>
@@ -1595,116 +1561,105 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27" t="s">
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="O9" s="32"/>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="37"/>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>121</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
       <c r="F12" s="6"/>
       <c r="G12" s="12"/>
       <c r="H12" s="21" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="6" t="s">
@@ -1713,22 +1668,22 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="6"/>
       <c r="G13" s="12"/>
       <c r="H13" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="6" t="s">
@@ -1737,22 +1692,22 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
       <c r="F14" s="6"/>
       <c r="G14" s="12"/>
       <c r="H14" s="21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="6" t="s">
@@ -1761,70 +1716,73 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="F15" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="6"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="M15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="6"/>
       <c r="G17" s="12"/>
       <c r="H17" s="21" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="6" t="s">
@@ -1833,22 +1791,22 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
       <c r="F18" s="6"/>
       <c r="G18" s="12"/>
       <c r="H18" s="21" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="6" t="s">
@@ -1857,95 +1815,97 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>131</v>
+      <c r="B19" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
       <c r="F20" s="6"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19" t="s">
+      <c r="H20" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>132</v>
+      <c r="A21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>275</v>
+        <v>57</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
       <c r="F21" s="6"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19" t="s">
+      <c r="H21" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>134</v>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
       <c r="F22" s="6"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19" t="s">
+      <c r="H22" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K22" s="10"/>
@@ -1953,20 +1913,20 @@
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
       <c r="F23" s="6"/>
       <c r="G23" s="12"/>
       <c r="H23" s="21" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="I23" s="10"/>
       <c r="J23" s="6" t="s">
@@ -1975,22 +1935,22 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>277</v>
+        <v>60</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10"/>
       <c r="F24" s="6"/>
       <c r="G24" s="12"/>
       <c r="H24" s="21" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="6" t="s">
@@ -1999,46 +1959,44 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
       <c r="F26" s="6"/>
       <c r="G26" s="12"/>
       <c r="H26" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="19" t="s">
@@ -2049,20 +2007,20 @@
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="6"/>
       <c r="G27" s="12"/>
       <c r="H27" s="22" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="19" t="s">
@@ -2076,17 +2034,17 @@
         <v>20</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="6"/>
       <c r="G28" s="12"/>
       <c r="H28" s="22" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="19" t="s">
@@ -2100,17 +2058,17 @@
         <v>45</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="6"/>
       <c r="G29" s="12"/>
       <c r="H29" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I29" s="10"/>
       <c r="J29" s="6" t="s">
@@ -2121,20 +2079,20 @@
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
       <c r="F30" s="6"/>
       <c r="G30" s="12"/>
       <c r="H30" s="21" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I30" s="10"/>
       <c r="J30" s="6" t="s">
@@ -2148,17 +2106,17 @@
         <v>20</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="6"/>
       <c r="G31" s="12"/>
       <c r="H31" s="21" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="6" t="s">
@@ -2167,22 +2125,22 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
       <c r="F32" s="6"/>
       <c r="G32" s="12"/>
       <c r="H32" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="19" t="s">
@@ -2193,20 +2151,20 @@
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="6"/>
       <c r="G33" s="12"/>
       <c r="H33" s="22" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="19" t="s">
@@ -2220,17 +2178,17 @@
         <v>20</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
       <c r="F34" s="6"/>
       <c r="G34" s="12"/>
       <c r="H34" s="22" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="19" t="s">
@@ -2239,24 +2197,22 @@
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>84</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="6"/>
       <c r="G35" s="12"/>
       <c r="H35" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I35" s="10"/>
       <c r="J35" s="6" t="s">
@@ -2267,20 +2223,20 @@
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
       <c r="F36" s="6"/>
       <c r="G36" s="12"/>
       <c r="H36" s="21" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I36" s="10"/>
       <c r="J36" s="6" t="s">
@@ -2289,22 +2245,22 @@
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
       <c r="F37" s="6"/>
       <c r="G37" s="12"/>
       <c r="H37" s="21" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="I37" s="10"/>
       <c r="J37" s="6" t="s">
@@ -2313,24 +2269,22 @@
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>84</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="6"/>
       <c r="G38" s="12"/>
       <c r="H38" s="22" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="19" t="s">
@@ -2341,20 +2295,20 @@
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="6"/>
       <c r="G39" s="12"/>
       <c r="H39" s="22" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="19" t="s">
@@ -2368,17 +2322,17 @@
         <v>20</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
       <c r="F40" s="6"/>
       <c r="G40" s="12"/>
       <c r="H40" s="22" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="19" t="s">
@@ -2387,24 +2341,24 @@
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="1" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="6"/>
       <c r="G41" s="12"/>
       <c r="H41" s="21" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="6" t="s">
@@ -2414,69 +2368,71 @@
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>167</v>
+      <c r="A42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
       <c r="F42" s="6"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="19" t="s">
+      <c r="H42" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="10"/>
+      <c r="J42" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>168</v>
+      <c r="A43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
       <c r="F43" s="6"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="19" t="s">
+      <c r="H43" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
     </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="9"/>
+        <v>85</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="E44" s="10"/>
       <c r="F44" s="6"/>
       <c r="G44" s="12"/>
       <c r="H44" s="22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="19" t="s">
@@ -2486,69 +2442,71 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>172</v>
+      <c r="A45" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>161</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
       <c r="F45" s="6"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="6" t="s">
+      <c r="H45" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>173</v>
+    <row r="46" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
       <c r="F46" s="6"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="6" t="s">
+      <c r="H46" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="I46" s="18"/>
+      <c r="J46" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="E47" s="10"/>
       <c r="F47" s="6"/>
       <c r="G47" s="12"/>
       <c r="H47" s="21" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="I47" s="10"/>
       <c r="J47" s="6" t="s">
@@ -2558,45 +2516,45 @@
       <c r="L47" s="10"/>
     </row>
     <row r="48" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>177</v>
+      <c r="B48" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="10"/>
       <c r="F48" s="6"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="6" t="s">
+      <c r="H48" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="18"/>
+      <c r="J48" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
     </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="10"/>
       <c r="F49" s="6"/>
       <c r="G49" s="12"/>
       <c r="H49" s="22" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="19" t="s">
@@ -2605,22 +2563,22 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
     </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="10"/>
       <c r="F50" s="6"/>
       <c r="G50" s="12"/>
       <c r="H50" s="22" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="19" t="s">
@@ -2629,90 +2587,237 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
     </row>
-    <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="10"/>
       <c r="F51" s="6"/>
       <c r="G51" s="12"/>
-      <c r="H51" s="10"/>
+      <c r="H51" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="I51" s="10"/>
-      <c r="J51" s="6"/>
+      <c r="J51" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
     </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="9"/>
+    <row r="52" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="D52" s="9"/>
       <c r="E52" s="10"/>
       <c r="F52" s="6"/>
       <c r="G52" s="12"/>
-      <c r="H52" s="10"/>
+      <c r="H52" s="21" t="s">
+        <v>173</v>
+      </c>
       <c r="I52" s="10"/>
-      <c r="J52" s="6"/>
+      <c r="J52" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
     </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="I55" s="18"/>
+      <c r="J55" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+    </row>
+    <row r="56" spans="1:13" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="I56" s="18"/>
+      <c r="J56" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+    </row>
+    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="39"/>
+    </row>
+    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B59" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-    </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-    </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2722,11 +2827,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD123"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2870,7 +2975,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>18</v>
@@ -2884,7 +2989,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>19</v>
@@ -2898,7 +3003,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>41</v>
@@ -2912,13 +3017,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2926,13 +3031,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2940,13 +3045,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2954,13 +3059,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2968,13 +3073,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2982,13 +3087,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2996,13 +3101,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -3010,13 +3115,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3024,13 +3129,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -3038,13 +3143,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3052,13 +3157,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3066,13 +3171,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3080,13 +3185,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3094,13 +3199,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3119,10 +3224,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3133,10 +3238,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3147,10 +3252,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3161,10 +3266,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3175,10 +3280,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3197,13 +3302,13 @@
         <v>17</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -3213,13 +3318,13 @@
         <v>17</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -3229,13 +3334,13 @@
         <v>17</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -3245,13 +3350,13 @@
         <v>17</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -3261,13 +3366,13 @@
         <v>17</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -3293,10 +3398,10 @@
         <v>17</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>185</v>
@@ -3305,1269 +3410,347 @@
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+        <v>190</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+        <v>192</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+        <v>212</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+        <v>215</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+        <v>216</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+        <v>217</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="A53" s="8"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="B54">
+        <v>101</v>
+      </c>
+      <c r="C54">
+        <v>101</v>
+      </c>
+      <c r="F54" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="B55">
+        <v>102</v>
+      </c>
+      <c r="C55">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="B56">
+        <v>103</v>
+      </c>
+      <c r="C56">
+        <v>103</v>
+      </c>
+      <c r="F56" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="B57">
+        <v>104</v>
+      </c>
+      <c r="C57">
+        <v>104</v>
+      </c>
+      <c r="F57" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="B58">
+        <v>105</v>
+      </c>
+      <c r="C58">
+        <v>105</v>
+      </c>
+      <c r="F58" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="B59">
+        <v>106</v>
+      </c>
+      <c r="C59">
+        <v>106</v>
+      </c>
+      <c r="F59" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60">
+        <v>107</v>
+      </c>
+      <c r="C60">
+        <v>107</v>
+      </c>
+      <c r="F60" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="B61">
+        <v>108</v>
+      </c>
+      <c r="C61">
+        <v>108</v>
+      </c>
+      <c r="F61" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="B62">
+        <v>109</v>
+      </c>
+      <c r="C62">
+        <v>109</v>
+      </c>
+      <c r="F62" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+        <v>218</v>
+      </c>
+      <c r="B63">
+        <v>110</v>
+      </c>
+      <c r="C63">
+        <v>110</v>
+      </c>
+      <c r="F63" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1" t="s">
+      <c r="B64">
+        <v>111</v>
+      </c>
+      <c r="C64">
+        <v>111</v>
+      </c>
+      <c r="F64" t="s">
         <v>193</v>
       </c>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E94" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E95" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E96" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E97" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E98" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E99" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E100" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E101" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E102" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E103" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E104" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B105" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="E105" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B106" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C106" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="E106" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B107" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="E107" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B108" t="s">
-        <v>234</v>
-      </c>
-      <c r="C108" t="s">
-        <v>234</v>
-      </c>
-      <c r="E108" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B109" t="s">
-        <v>237</v>
-      </c>
-      <c r="C109" t="s">
-        <v>237</v>
-      </c>
-      <c r="E109" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B110" t="s">
-        <v>240</v>
-      </c>
-      <c r="C110" t="s">
-        <v>240</v>
-      </c>
-      <c r="E110" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B111" t="s">
-        <v>241</v>
-      </c>
-      <c r="C111" t="s">
-        <v>241</v>
-      </c>
-      <c r="E111" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B112" t="s">
-        <v>242</v>
-      </c>
-      <c r="C112" t="s">
-        <v>242</v>
-      </c>
-      <c r="E112" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113" t="s">
-        <v>243</v>
-      </c>
-      <c r="C113" t="s">
-        <v>243</v>
-      </c>
-      <c r="E113" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B114" t="s">
-        <v>244</v>
-      </c>
-      <c r="C114" t="s">
-        <v>244</v>
-      </c>
-      <c r="E114" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B115" t="s">
-        <v>260</v>
-      </c>
-      <c r="C115" t="s">
-        <v>260</v>
-      </c>
-      <c r="E115" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B116" t="s">
-        <v>264</v>
-      </c>
-      <c r="C116" t="s">
-        <v>264</v>
-      </c>
-      <c r="E116" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B117" t="s">
-        <v>265</v>
-      </c>
-      <c r="C117" t="s">
-        <v>265</v>
-      </c>
-      <c r="E117" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B118" t="s">
-        <v>266</v>
-      </c>
-      <c r="C118" t="s">
-        <v>266</v>
-      </c>
-      <c r="E118" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B119" t="s">
-        <v>267</v>
-      </c>
-      <c r="C119" t="s">
-        <v>267</v>
-      </c>
-      <c r="E119" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B120" t="s">
-        <v>268</v>
-      </c>
-      <c r="C120" t="s">
-        <v>268</v>
-      </c>
-      <c r="E120" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B121" t="s">
-        <v>269</v>
-      </c>
-      <c r="C121" t="s">
-        <v>269</v>
-      </c>
-      <c r="E121" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B122" t="s">
-        <v>216</v>
-      </c>
-      <c r="C122" t="s">
-        <v>216</v>
-      </c>
-      <c r="E122" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B123" t="s">
-        <v>270</v>
-      </c>
-      <c r="C123" t="s">
-        <v>270</v>
-      </c>
-      <c r="E123" t="s">
-        <v>216</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A73:B83">
-    <sortCondition ref="B73:B83"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4578,7 +3761,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4603,10 +3786,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
